--- a/Bravo-V1.0/BOM/Bravo_V1.0_BOM.xlsx
+++ b/Bravo-V1.0/BOM/Bravo_V1.0_BOM.xlsx
@@ -621,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
